--- a/results/mp/logistic/corona/confidence/210/stop-words-desired-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-desired-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,79 +40,94 @@
     <t>name</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>support</t>
@@ -121,85 +136,79 @@
     <t>good</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>join</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>save</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>helping</t>
   </si>
   <si>
     <t>sure</t>
@@ -560,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,16 +659,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8648648648648649</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,16 +709,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.839041095890411</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C5">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D5">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9666666666666667</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -779,38 +788,38 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8275862068965517</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L6">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="L6">
-        <v>56</v>
-      </c>
-      <c r="M6">
-        <v>56</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -821,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8235294117647058</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -879,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7692307692307693</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7666666666666667</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,16 +959,16 @@
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.9164490861618799</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>351</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>351</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,31 +1006,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>0.8943661971830986</v>
+      </c>
+      <c r="L10">
+        <v>127</v>
+      </c>
+      <c r="M10">
+        <v>127</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>15</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L10">
-        <v>20</v>
-      </c>
-      <c r="M10">
-        <v>20</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5714285714285714</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C11">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D11">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.90625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L11">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1079,37 +1088,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5423728813559322</v>
+        <v>0.4864341085271318</v>
       </c>
       <c r="C12">
+        <v>251</v>
+      </c>
+      <c r="D12">
+        <v>251</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>265</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12">
-        <v>32</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>27</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K12">
-        <v>0.8928571428571429</v>
+        <v>0.890625</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4437984496124031</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C13">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>287</v>
+        <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L13">
         <v>32</v>
       </c>
-      <c r="K13">
-        <v>0.8873239436619719</v>
-      </c>
-      <c r="L13">
-        <v>126</v>
-      </c>
       <c r="M13">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.392156862745098</v>
+        <v>0.302013422818792</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.8867924528301887</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L14">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1677852348993289</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.88125</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L15">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,12 +1280,36 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.007085346215780998</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>0.08</v>
+      </c>
+      <c r="F16">
+        <v>0.92</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3083</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K16">
         <v>0.8723404255319149</v>
@@ -1302,16 +1335,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1323,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.8536585365853658</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="M18">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1349,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.8372093023255814</v>
+        <v>0.84375</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1375,21 +1408,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.8333333333333334</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1401,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.8275862068965517</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L21">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1427,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.8214285714285714</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1458,16 +1491,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.8148148148148148</v>
+        <v>0.8125</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1479,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.7916666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1510,16 +1543,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.7619047619047619</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1531,21 +1564,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.76</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1557,21 +1590,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.7529411764705882</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L27">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="M27">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1583,21 +1616,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>84</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>0.7254237288135593</v>
+        <v>0.7558823529411764</v>
       </c>
       <c r="L28">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="M28">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1609,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1635,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.7142857142857143</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1661,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.7112970711297071</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="L31">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="M31">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1687,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.6923076923076923</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1713,12 +1746,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33">
         <v>0.6914893617021277</v>
@@ -1744,16 +1777,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.6857142857142857</v>
+        <v>0.675</v>
       </c>
       <c r="L34">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1765,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.675</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1791,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.651685393258427</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L36">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1817,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.6363636363636364</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1843,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.5238095238095238</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1869,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.5111111111111111</v>
+        <v>0.6</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1895,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.5098039215686274</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1921,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.4383561643835616</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1947,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.4230769230769231</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1973,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.328125</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1999,7 +2032,59 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>43</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="L44">
+        <v>20</v>
+      </c>
+      <c r="M44">
+        <v>20</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45">
+        <v>0.296875</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
